--- a/Data KDM SLS.xlsx
+++ b/Data KDM SLS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semester 5\MAGANG BPS\KDM SLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C949D32-E3BA-4B58-BF0D-166833295CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DE627-6239-4330-AAC1-5F9D17645858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6162,8 +6162,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="B705" workbookViewId="0">
+      <selection activeCell="D716" sqref="D716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19056,13 +19056,8 @@
       </c>
     </row>
     <row r="716" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C716" s="5">
-        <v>19107</v>
-      </c>
-      <c r="D716" s="15">
-        <f>SUM(D2:D715)</f>
-        <v>7149</v>
-      </c>
+      <c r="C716" s="5"/>
+      <c r="D716" s="15"/>
     </row>
     <row r="717" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D717" s="13"/>
@@ -19937,7 +19932,7 @@
   <customSheetViews>
     <customSheetView guid="{CF13ABBC-49E7-4891-9DE8-C744C5306EEA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Z716" xr:uid="{F7450751-BA4E-43CF-A7B2-C152E4973F58}">
+      <autoFilter ref="A1:Z716" xr:uid="{48638BE5-7E07-457F-BD22-588D97C66CBF}">
         <filterColumn colId="0">
           <filters>
             <filter val="3576020009000100"/>
@@ -30398,7 +30393,7 @@
   <customSheetViews>
     <customSheetView guid="{CF13ABBC-49E7-4891-9DE8-C744C5306EEA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Z722" xr:uid="{F346D6B6-FAAA-4DDA-9B13-C5DFE55FBA6D}">
+      <autoFilter ref="A1:Z722" xr:uid="{7F7720D2-01C2-4F8E-9940-2CEDFB33E379}">
         <filterColumn colId="0">
           <filters>
             <filter val="3576020009"/>
